--- a/biology/Médecine/Jacques_Molin/Jacques_Molin.xlsx
+++ b/biology/Médecine/Jacques_Molin/Jacques_Molin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Molin est un médecin français né le 29 avril 1666 à Marvege (aujourd'hui Marvejols[1]) et mort le 21 mars 1755 à Paris[2]. À son époque, il est aussi connu sous le nom de Du Moulin.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Molin est un médecin français né le 29 avril 1666 à Marvege (aujourd'hui Marvejols) et mort le 21 mars 1755 à Paris. À son époque, il est aussi connu sous le nom de Du Moulin.
 Il est le médecin de Louis XIV dans les dernières années de son règne, puis médecin conseiller du roi Louis XV. 
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir reçu le titre de docteur à Montpellier, il se rend à Paris, devient professeur d’anatomie au Jardin du Roi, est nommé ensuite, par le duc de Noailles, médecin en chef de l’armée de Catalogne. De retour à Paris en 1706, il acquiert par plusieurs cures difficiles la réputation du plus habile praticien de son temps.
 Louis XIV l’attache à sa personne dans les dernières années de sa vie. Il devient médecin de Louis XV qu’il guérit à Metz, en 1744, d’une maladie des plus graves. Outre son traitement de médecin consultant, il reçoit alors du roi 9 000 livres d’appointements et, comme il est fort intéressé, il laisse en mourant une fortune de 1 600 000 livres.
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On n’a de Molin qu’un seul écrit intitulé : Observations sur le rhumatisme (in-12).
 </t>
@@ -578,7 +594,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« Jacques Molin », dans Pierre Larousse, Grand dictionnaire universel du XIXe siècle, Paris, Administration du grand dictionnaire universel, 15 vol., 1863-1890 [détail des éditions].
 </t>
